--- a/biology/Zoologie/Eleutherodactylus_johnstonei/Eleutherodactylus_johnstonei.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_johnstonei/Eleutherodactylus_johnstonei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus johnstonei est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus johnstonei est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originellement endémique des petites Antilles[1]. Elle se rencontre à Anguilla, à Saba, à Saint-Eustache, à Saint Martin, à Saint-Christophe, à Niévès, à Antigua, à Barbuda, à Montserrat, en Guadeloupe, à la Dominique, en Martinique, à Sainte-Lucie, à la Barbade, à Saint-Vincent, à Moustique, à Canouan, à Carriacou et à la Grenade du niveau de la mer à 1 300 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originellement endémique des petites Antilles. Elle se rencontre à Anguilla, à Saba, à Saint-Eustache, à Saint Martin, à Saint-Christophe, à Niévès, à Antigua, à Barbuda, à Montserrat, en Guadeloupe, à la Dominique, en Martinique, à Sainte-Lucie, à la Barbade, à Saint-Vincent, à Moustique, à Canouan, à Carriacou et à la Grenade du niveau de la mer à 1 300 m d'altitude.
 Elle a été introduite en Guyane, au Guyana, au Venezuela, en Colombie, au Panama, au Costa Rica, à Aruba, à Curaçao, en Jamaïque, à Trinité-et-Tobago et aux Bermudes.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent jusqu'à 35 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent jusqu'à 35 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Robert Stewart Johnstone (1855–1936)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Robert Stewart Johnstone (1855–1936).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Barbour, 1914 : A contribution to the zoogeography of the West Indies, with special reference to amphibians and reptiles. Memoirs of the Museum of Comparative Zoölogy at Harvard College, vol. 44, no 2, p. 204-259 (texte intégral).</t>
         </is>
